--- a/exam-A/workplace/mnt/data/附件3：12个月各园区典型日风光发电数据.xlsx
+++ b/exam-A/workplace/mnt/data/附件3：12个月各园区典型日风光发电数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gloridust\Documents\GitHub\shumo.neepu.2024\exam-A\workplace\mnt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3B810E-B92C-4626-A265-6A9C3B531080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1220C7-067C-478D-B819-48490FEBCD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4620" yWindow="1650" windowWidth="16200" windowHeight="9398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,19 +342,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +640,7 @@
   <dimension ref="A1:AW51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -654,207 +654,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="18" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="18" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="18" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="19" t="s">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="18" t="s">
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="19" t="s">
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="20"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="18"/>
     </row>
     <row r="2" spans="1:49" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="20"/>
+      <c r="Y2" s="18"/>
       <c r="Z2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="18"/>
+      <c r="AC2" s="17"/>
       <c r="AD2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="20"/>
+      <c r="AG2" s="18"/>
       <c r="AH2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="18"/>
+      <c r="AK2" s="17"/>
       <c r="AL2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="18" t="s">
+      <c r="AN2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="20"/>
+      <c r="AO2" s="18"/>
       <c r="AP2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AR2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="18"/>
+      <c r="AS2" s="17"/>
       <c r="AT2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="AU2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="18" t="s">
+      <c r="AV2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="20"/>
+      <c r="AW2" s="18"/>
     </row>
     <row r="3" spans="1:49" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0.55349999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:49" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>0.625</v>
       </c>
@@ -5778,6 +5778,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:AW1"/>
@@ -5794,15 +5803,6 @@
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
